--- a/code/PhaseI/data/iccps/Feeder2.xlsx
+++ b/code/PhaseI/data/iccps/Feeder2.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="18" uniqueCount="18">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="19" uniqueCount="19">
   <si>
     <t>Time</t>
   </si>
@@ -73,6 +73,9 @@
   </si>
   <si>
     <t>Consumer_2_17</t>
+  </si>
+  <si>
+    <t>Net_Consumption_2</t>
   </si>
 </sst>
 </file>
@@ -391,10 +394,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:R97"/>
+  <dimension ref="A1:S97"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="G1" workbookViewId="0">
-      <selection activeCell="S1" sqref="S1:S1048576"/>
+      <selection activeCell="S1" sqref="S1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -402,9 +405,10 @@
     <col min="1" max="1" width="30.28515625" bestFit="1" customWidth="1"/>
     <col min="2" max="10" width="14.140625" bestFit="1" customWidth="1"/>
     <col min="11" max="18" width="15.140625" bestFit="1" customWidth="1"/>
+    <col min="19" max="19" width="17.42578125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -459,8 +463,11 @@
       <c r="R1" t="s">
         <v>17</v>
       </c>
-    </row>
-    <row r="2" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="S1" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="2" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A2" s="1">
         <v>0</v>
       </c>
@@ -515,8 +522,12 @@
       <c r="R2">
         <v>3.2</v>
       </c>
-    </row>
-    <row r="3" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="S2">
+        <f>SUM(B2:R2)</f>
+        <v>8.9</v>
+      </c>
+    </row>
+    <row r="3" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A3" s="1">
         <v>1.0416666666666666E-2</v>
       </c>
@@ -571,8 +582,12 @@
       <c r="R3">
         <v>3.1</v>
       </c>
-    </row>
-    <row r="4" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="S3">
+        <f t="shared" ref="S3:S66" si="0">SUM(B3:R3)</f>
+        <v>8.1</v>
+      </c>
+    </row>
+    <row r="4" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A4" s="1">
         <v>2.0833333333333332E-2</v>
       </c>
@@ -627,8 +642,12 @@
       <c r="R4">
         <v>3</v>
       </c>
-    </row>
-    <row r="5" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="S4">
+        <f t="shared" si="0"/>
+        <v>7.4999999999999991</v>
+      </c>
+    </row>
+    <row r="5" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A5" s="1">
         <v>3.125E-2</v>
       </c>
@@ -683,8 +702,12 @@
       <c r="R5">
         <v>2.9</v>
       </c>
-    </row>
-    <row r="6" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="S5">
+        <f t="shared" si="0"/>
+        <v>6.8000000000000007</v>
+      </c>
+    </row>
+    <row r="6" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A6" s="1">
         <v>4.1666666666666664E-2</v>
       </c>
@@ -739,8 +762,12 @@
       <c r="R6">
         <v>2.7</v>
       </c>
-    </row>
-    <row r="7" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="S6">
+        <f t="shared" si="0"/>
+        <v>6.3000000000000007</v>
+      </c>
+    </row>
+    <row r="7" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A7" s="1">
         <v>5.2083333333333336E-2</v>
       </c>
@@ -795,8 +822,12 @@
       <c r="R7">
         <v>2.6</v>
       </c>
-    </row>
-    <row r="8" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="S7">
+        <f t="shared" si="0"/>
+        <v>6.1000000000000014</v>
+      </c>
+    </row>
+    <row r="8" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A8" s="1">
         <v>6.25E-2</v>
       </c>
@@ -851,8 +882,12 @@
       <c r="R8">
         <v>2.5</v>
       </c>
-    </row>
-    <row r="9" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="S8">
+        <f t="shared" si="0"/>
+        <v>6.0000000000000009</v>
+      </c>
+    </row>
+    <row r="9" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A9" s="1">
         <v>7.2916666666666671E-2</v>
       </c>
@@ -907,8 +942,12 @@
       <c r="R9">
         <v>2.5</v>
       </c>
-    </row>
-    <row r="10" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="S9">
+        <f t="shared" si="0"/>
+        <v>6.0000000000000009</v>
+      </c>
+    </row>
+    <row r="10" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A10" s="1">
         <v>8.3333333333333329E-2</v>
       </c>
@@ -963,8 +1002,12 @@
       <c r="R10">
         <v>2.4</v>
       </c>
-    </row>
-    <row r="11" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="S10">
+        <f t="shared" si="0"/>
+        <v>5.9</v>
+      </c>
+    </row>
+    <row r="11" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A11" s="1">
         <v>9.375E-2</v>
       </c>
@@ -1019,8 +1062,12 @@
       <c r="R11">
         <v>2.4</v>
       </c>
-    </row>
-    <row r="12" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="S11">
+        <f t="shared" si="0"/>
+        <v>5.8000000000000007</v>
+      </c>
+    </row>
+    <row r="12" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A12" s="1">
         <v>0.10416666666666667</v>
       </c>
@@ -1075,8 +1122,12 @@
       <c r="R12">
         <v>2.4</v>
       </c>
-    </row>
-    <row r="13" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="S12">
+        <f t="shared" si="0"/>
+        <v>5.8000000000000007</v>
+      </c>
+    </row>
+    <row r="13" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A13" s="1">
         <v>0.11458333333333333</v>
       </c>
@@ -1131,8 +1182,12 @@
       <c r="R13">
         <v>2.4</v>
       </c>
-    </row>
-    <row r="14" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="S13">
+        <f t="shared" si="0"/>
+        <v>5.8000000000000007</v>
+      </c>
+    </row>
+    <row r="14" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A14" s="1">
         <v>0.125</v>
       </c>
@@ -1187,8 +1242,12 @@
       <c r="R14">
         <v>2.4</v>
       </c>
-    </row>
-    <row r="15" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="S14">
+        <f t="shared" si="0"/>
+        <v>5.8000000000000007</v>
+      </c>
+    </row>
+    <row r="15" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A15" s="1">
         <v>0.13541666666666666</v>
       </c>
@@ -1243,8 +1302,12 @@
       <c r="R15">
         <v>2.4</v>
       </c>
-    </row>
-    <row r="16" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="S15">
+        <f t="shared" si="0"/>
+        <v>5.7</v>
+      </c>
+    </row>
+    <row r="16" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A16" s="1">
         <v>0.14583333333333334</v>
       </c>
@@ -1299,8 +1362,12 @@
       <c r="R16">
         <v>2.4</v>
       </c>
-    </row>
-    <row r="17" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="S16">
+        <f t="shared" si="0"/>
+        <v>5.7</v>
+      </c>
+    </row>
+    <row r="17" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A17" s="1">
         <v>0.15625</v>
       </c>
@@ -1355,8 +1422,12 @@
       <c r="R17">
         <v>2.5</v>
       </c>
-    </row>
-    <row r="18" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="S17">
+        <f t="shared" si="0"/>
+        <v>5.8000000000000007</v>
+      </c>
+    </row>
+    <row r="18" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A18" s="1">
         <v>0.16666666666666666</v>
       </c>
@@ -1411,8 +1482,12 @@
       <c r="R18">
         <v>2.7</v>
       </c>
-    </row>
-    <row r="19" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="S18">
+        <f t="shared" si="0"/>
+        <v>6</v>
+      </c>
+    </row>
+    <row r="19" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A19" s="1">
         <v>0.17708333333333334</v>
       </c>
@@ -1467,8 +1542,12 @@
       <c r="R19">
         <v>2.8</v>
       </c>
-    </row>
-    <row r="20" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="S19">
+        <f t="shared" si="0"/>
+        <v>6.2000000000000011</v>
+      </c>
+    </row>
+    <row r="20" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A20" s="1">
         <v>0.1875</v>
       </c>
@@ -1523,8 +1602,12 @@
       <c r="R20">
         <v>3</v>
       </c>
-    </row>
-    <row r="21" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="S20">
+        <f t="shared" si="0"/>
+        <v>6.4</v>
+      </c>
+    </row>
+    <row r="21" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A21" s="1">
         <v>0.19791666666666666</v>
       </c>
@@ -1579,8 +1662,12 @@
       <c r="R21">
         <v>3.2</v>
       </c>
-    </row>
-    <row r="22" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="S21">
+        <f t="shared" si="0"/>
+        <v>6.7000000000000011</v>
+      </c>
+    </row>
+    <row r="22" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A22" s="1">
         <v>0.20833333333333334</v>
       </c>
@@ -1635,8 +1722,12 @@
       <c r="R22">
         <v>3.2</v>
       </c>
-    </row>
-    <row r="23" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="S22">
+        <f t="shared" si="0"/>
+        <v>6.7000000000000011</v>
+      </c>
+    </row>
+    <row r="23" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A23" s="1">
         <v>0.21875</v>
       </c>
@@ -1691,8 +1782,12 @@
       <c r="R23">
         <v>3.2</v>
       </c>
-    </row>
-    <row r="24" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="S23">
+        <f t="shared" si="0"/>
+        <v>6.7000000000000011</v>
+      </c>
+    </row>
+    <row r="24" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A24" s="1">
         <v>0.22916666666666666</v>
       </c>
@@ -1747,8 +1842,12 @@
       <c r="R24">
         <v>3.2</v>
       </c>
-    </row>
-    <row r="25" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="S24">
+        <f t="shared" si="0"/>
+        <v>6.9</v>
+      </c>
+    </row>
+    <row r="25" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A25" s="1">
         <v>0.23958333333333334</v>
       </c>
@@ -1803,8 +1902,12 @@
       <c r="R25">
         <v>3.2</v>
       </c>
-    </row>
-    <row r="26" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="S25">
+        <f t="shared" si="0"/>
+        <v>7.6999999999999993</v>
+      </c>
+    </row>
+    <row r="26" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A26" s="1">
         <v>0.25</v>
       </c>
@@ -1859,8 +1962,12 @@
       <c r="R26">
         <v>3.2</v>
       </c>
-    </row>
-    <row r="27" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="S26">
+        <f t="shared" si="0"/>
+        <v>8.4</v>
+      </c>
+    </row>
+    <row r="27" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A27" s="1">
         <v>0.26041666666666669</v>
       </c>
@@ -1915,8 +2022,12 @@
       <c r="R27">
         <v>3.3</v>
       </c>
-    </row>
-    <row r="28" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="S27">
+        <f t="shared" si="0"/>
+        <v>9.4</v>
+      </c>
+    </row>
+    <row r="28" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A28" s="1">
         <v>0.27083333333333331</v>
       </c>
@@ -1971,8 +2082,12 @@
       <c r="R28">
         <v>3.4</v>
       </c>
-    </row>
-    <row r="29" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="S28">
+        <f t="shared" si="0"/>
+        <v>10.100000000000001</v>
+      </c>
+    </row>
+    <row r="29" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A29" s="1">
         <v>0.28125</v>
       </c>
@@ -2027,8 +2142,12 @@
       <c r="R29">
         <v>3.6</v>
       </c>
-    </row>
-    <row r="30" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="S29">
+        <f t="shared" si="0"/>
+        <v>11.200000000000001</v>
+      </c>
+    </row>
+    <row r="30" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A30" s="1">
         <v>0.29166666666666669</v>
       </c>
@@ -2083,8 +2202,12 @@
       <c r="R30">
         <v>3.9</v>
       </c>
-    </row>
-    <row r="31" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="S30">
+        <f t="shared" si="0"/>
+        <v>11.9</v>
+      </c>
+    </row>
+    <row r="31" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A31" s="1">
         <v>0.30208333333333331</v>
       </c>
@@ -2139,8 +2262,12 @@
       <c r="R31">
         <v>4.3</v>
       </c>
-    </row>
-    <row r="32" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="S31">
+        <f t="shared" si="0"/>
+        <v>12.599999999999998</v>
+      </c>
+    </row>
+    <row r="32" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A32" s="1">
         <v>0.3125</v>
       </c>
@@ -2195,8 +2322,12 @@
       <c r="R32">
         <v>4.8</v>
       </c>
-    </row>
-    <row r="33" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="S32">
+        <f t="shared" si="0"/>
+        <v>13.3</v>
+      </c>
+    </row>
+    <row r="33" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A33" s="1">
         <v>0.32291666666666669</v>
       </c>
@@ -2251,8 +2382,12 @@
       <c r="R33">
         <v>5.4</v>
       </c>
-    </row>
-    <row r="34" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="S33">
+        <f t="shared" si="0"/>
+        <v>14</v>
+      </c>
+    </row>
+    <row r="34" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A34" s="1">
         <v>0.33333333333333331</v>
       </c>
@@ -2307,8 +2442,12 @@
       <c r="R34">
         <v>6.2</v>
       </c>
-    </row>
-    <row r="35" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="S34">
+        <f t="shared" si="0"/>
+        <v>15.2</v>
+      </c>
+    </row>
+    <row r="35" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A35" s="1">
         <v>0.34375</v>
       </c>
@@ -2363,8 +2502,12 @@
       <c r="R35">
         <v>7</v>
       </c>
-    </row>
-    <row r="36" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="S35">
+        <f t="shared" si="0"/>
+        <v>16.2</v>
+      </c>
+    </row>
+    <row r="36" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A36" s="1">
         <v>0.35416666666666669</v>
       </c>
@@ -2419,8 +2562,12 @@
       <c r="R36">
         <v>7.8</v>
       </c>
-    </row>
-    <row r="37" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="S36">
+        <f t="shared" si="0"/>
+        <v>17.3</v>
+      </c>
+    </row>
+    <row r="37" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A37" s="1">
         <v>0.36458333333333331</v>
       </c>
@@ -2475,8 +2622,12 @@
       <c r="R37">
         <v>8.4</v>
       </c>
-    </row>
-    <row r="38" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="S37">
+        <f t="shared" si="0"/>
+        <v>17.899999999999999</v>
+      </c>
+    </row>
+    <row r="38" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A38" s="1">
         <v>0.375</v>
       </c>
@@ -2531,8 +2682,12 @@
       <c r="R38">
         <v>8.8000000000000007</v>
       </c>
-    </row>
-    <row r="39" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="S38">
+        <f t="shared" si="0"/>
+        <v>18.3</v>
+      </c>
+    </row>
+    <row r="39" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A39" s="1">
         <v>0.38541666666666669</v>
       </c>
@@ -2587,8 +2742,12 @@
       <c r="R39">
         <v>8.9</v>
       </c>
-    </row>
-    <row r="40" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="S39">
+        <f t="shared" si="0"/>
+        <v>18.399999999999999</v>
+      </c>
+    </row>
+    <row r="40" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A40" s="1">
         <v>0.39583333333333331</v>
       </c>
@@ -2643,8 +2802,12 @@
       <c r="R40">
         <v>9</v>
       </c>
-    </row>
-    <row r="41" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="S40">
+        <f t="shared" si="0"/>
+        <v>18.5</v>
+      </c>
+    </row>
+    <row r="41" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A41" s="1">
         <v>0.40625</v>
       </c>
@@ -2699,8 +2862,12 @@
       <c r="R41">
         <v>9</v>
       </c>
-    </row>
-    <row r="42" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="S41">
+        <f t="shared" si="0"/>
+        <v>18.5</v>
+      </c>
+    </row>
+    <row r="42" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A42" s="1">
         <v>0.41666666666666669</v>
       </c>
@@ -2755,8 +2922,12 @@
       <c r="R42">
         <v>9</v>
       </c>
-    </row>
-    <row r="43" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="S42">
+        <f t="shared" si="0"/>
+        <v>18.2</v>
+      </c>
+    </row>
+    <row r="43" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A43" s="1">
         <v>0.42708333333333331</v>
       </c>
@@ -2811,8 +2982,12 @@
       <c r="R43">
         <v>9.1</v>
       </c>
-    </row>
-    <row r="44" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="S43">
+        <f t="shared" si="0"/>
+        <v>18.299999999999997</v>
+      </c>
+    </row>
+    <row r="44" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A44" s="1">
         <v>0.4375</v>
       </c>
@@ -2867,8 +3042,12 @@
       <c r="R44">
         <v>9.1999999999999993</v>
       </c>
-    </row>
-    <row r="45" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="S44">
+        <f t="shared" si="0"/>
+        <v>18.2</v>
+      </c>
+    </row>
+    <row r="45" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A45" s="1">
         <v>0.44791666666666669</v>
       </c>
@@ -2923,8 +3102,12 @@
       <c r="R45">
         <v>9.1999999999999993</v>
       </c>
-    </row>
-    <row r="46" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="S45">
+        <f t="shared" si="0"/>
+        <v>18.2</v>
+      </c>
+    </row>
+    <row r="46" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A46" s="1">
         <v>0.45833333333333331</v>
       </c>
@@ -2979,8 +3162,12 @@
       <c r="R46">
         <v>9.3000000000000007</v>
       </c>
-    </row>
-    <row r="47" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="S46">
+        <f t="shared" si="0"/>
+        <v>18.3</v>
+      </c>
+    </row>
+    <row r="47" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A47" s="1">
         <v>0.46875</v>
       </c>
@@ -3035,8 +3222,12 @@
       <c r="R47">
         <v>9.4</v>
       </c>
-    </row>
-    <row r="48" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="S47">
+        <f t="shared" si="0"/>
+        <v>18.600000000000001</v>
+      </c>
+    </row>
+    <row r="48" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A48" s="1">
         <v>0.47916666666666669</v>
       </c>
@@ -3091,8 +3282,12 @@
       <c r="R48">
         <v>9.4</v>
       </c>
-    </row>
-    <row r="49" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="S48">
+        <f t="shared" si="0"/>
+        <v>18.899999999999999</v>
+      </c>
+    </row>
+    <row r="49" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A49" s="1">
         <v>0.48958333333333331</v>
       </c>
@@ -3147,8 +3342,12 @@
       <c r="R49">
         <v>9.4</v>
       </c>
-    </row>
-    <row r="50" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="S49">
+        <f t="shared" si="0"/>
+        <v>18.899999999999999</v>
+      </c>
+    </row>
+    <row r="50" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A50" s="1">
         <v>0.5</v>
       </c>
@@ -3203,8 +3402,12 @@
       <c r="R50">
         <v>9.1999999999999993</v>
       </c>
-    </row>
-    <row r="51" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="S50">
+        <f t="shared" si="0"/>
+        <v>18.899999999999999</v>
+      </c>
+    </row>
+    <row r="51" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A51" s="1">
         <v>0.51041666666666663</v>
       </c>
@@ -3259,8 +3462,12 @@
       <c r="R51">
         <v>9</v>
       </c>
-    </row>
-    <row r="52" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="S51">
+        <f t="shared" si="0"/>
+        <v>19.199999999999996</v>
+      </c>
+    </row>
+    <row r="52" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A52" s="1">
         <v>0.52083333333333337</v>
       </c>
@@ -3315,8 +3522,12 @@
       <c r="R52">
         <v>8.6999999999999993</v>
       </c>
-    </row>
-    <row r="53" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="S52">
+        <f t="shared" si="0"/>
+        <v>19.099999999999998</v>
+      </c>
+    </row>
+    <row r="53" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A53" s="1">
         <v>0.53125</v>
       </c>
@@ -3371,8 +3582,12 @@
       <c r="R53">
         <v>8.4</v>
       </c>
-    </row>
-    <row r="54" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="S53">
+        <f t="shared" si="0"/>
+        <v>18.899999999999999</v>
+      </c>
+    </row>
+    <row r="54" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A54" s="1">
         <v>0.54166666666666663</v>
       </c>
@@ -3427,8 +3642,12 @@
       <c r="R54">
         <v>8.1</v>
       </c>
-    </row>
-    <row r="55" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="S54">
+        <f t="shared" si="0"/>
+        <v>18.5</v>
+      </c>
+    </row>
+    <row r="55" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A55" s="1">
         <v>0.55208333333333337</v>
       </c>
@@ -3483,8 +3702,12 @@
       <c r="R55">
         <v>7.8</v>
       </c>
-    </row>
-    <row r="56" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="S55">
+        <f t="shared" si="0"/>
+        <v>17.999999999999996</v>
+      </c>
+    </row>
+    <row r="56" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A56" s="1">
         <v>0.5625</v>
       </c>
@@ -3539,8 +3762,12 @@
       <c r="R56">
         <v>7.6</v>
       </c>
-    </row>
-    <row r="57" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="S56">
+        <f t="shared" si="0"/>
+        <v>17.299999999999997</v>
+      </c>
+    </row>
+    <row r="57" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A57" s="1">
         <v>0.57291666666666663</v>
       </c>
@@ -3595,8 +3822,12 @@
       <c r="R57">
         <v>7.4</v>
       </c>
-    </row>
-    <row r="58" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="S57">
+        <f t="shared" si="0"/>
+        <v>16.899999999999999</v>
+      </c>
+    </row>
+    <row r="58" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A58" s="1">
         <v>0.58333333333333337</v>
       </c>
@@ -3651,8 +3882,12 @@
       <c r="R58">
         <v>7.3</v>
       </c>
-    </row>
-    <row r="59" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="S58">
+        <f t="shared" si="0"/>
+        <v>16.3</v>
+      </c>
+    </row>
+    <row r="59" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A59" s="1">
         <v>0.59375</v>
       </c>
@@ -3707,8 +3942,12 @@
       <c r="R59">
         <v>7.4</v>
       </c>
-    </row>
-    <row r="60" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="S59">
+        <f t="shared" si="0"/>
+        <v>15.9</v>
+      </c>
+    </row>
+    <row r="60" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A60" s="1">
         <v>0.60416666666666663</v>
       </c>
@@ -3763,8 +4002,12 @@
       <c r="R60">
         <v>7.4</v>
       </c>
-    </row>
-    <row r="61" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="S60">
+        <f t="shared" si="0"/>
+        <v>15.7</v>
+      </c>
+    </row>
+    <row r="61" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A61" s="1">
         <v>0.61458333333333337</v>
       </c>
@@ -3819,8 +4062,12 @@
       <c r="R61">
         <v>7.6</v>
       </c>
-    </row>
-    <row r="62" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="S61">
+        <f t="shared" si="0"/>
+        <v>15.799999999999999</v>
+      </c>
+    </row>
+    <row r="62" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A62" s="1">
         <v>0.625</v>
       </c>
@@ -3875,8 +4122,12 @@
       <c r="R62">
         <v>7.7</v>
       </c>
-    </row>
-    <row r="63" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="S62">
+        <f t="shared" si="0"/>
+        <v>15.600000000000001</v>
+      </c>
+    </row>
+    <row r="63" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A63" s="1">
         <v>0.63541666666666663</v>
       </c>
@@ -3931,8 +4182,12 @@
       <c r="R63">
         <v>7.9</v>
       </c>
-    </row>
-    <row r="64" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="S63">
+        <f t="shared" si="0"/>
+        <v>15.700000000000001</v>
+      </c>
+    </row>
+    <row r="64" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A64" s="1">
         <v>0.64583333333333337</v>
       </c>
@@ -3987,8 +4242,12 @@
       <c r="R64">
         <v>8</v>
       </c>
-    </row>
-    <row r="65" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="S64">
+        <f t="shared" si="0"/>
+        <v>15.7</v>
+      </c>
+    </row>
+    <row r="65" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A65" s="1">
         <v>0.65625</v>
       </c>
@@ -4043,8 +4302,12 @@
       <c r="R65">
         <v>8</v>
       </c>
-    </row>
-    <row r="66" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="S65">
+        <f t="shared" si="0"/>
+        <v>15.600000000000001</v>
+      </c>
+    </row>
+    <row r="66" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A66" s="1">
         <v>0.66666666666666663</v>
       </c>
@@ -4099,8 +4362,12 @@
       <c r="R66">
         <v>8</v>
       </c>
-    </row>
-    <row r="67" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="S66">
+        <f t="shared" si="0"/>
+        <v>15.5</v>
+      </c>
+    </row>
+    <row r="67" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A67" s="1">
         <v>0.67708333333333337</v>
       </c>
@@ -4155,8 +4422,12 @@
       <c r="R67">
         <v>7.9</v>
       </c>
-    </row>
-    <row r="68" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="S67">
+        <f t="shared" ref="S67:S97" si="1">SUM(B67:R67)</f>
+        <v>15.400000000000002</v>
+      </c>
+    </row>
+    <row r="68" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A68" s="1">
         <v>0.6875</v>
       </c>
@@ -4211,8 +4482,12 @@
       <c r="R68">
         <v>7.9</v>
       </c>
-    </row>
-    <row r="69" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="S68">
+        <f t="shared" si="1"/>
+        <v>15.400000000000002</v>
+      </c>
+    </row>
+    <row r="69" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A69" s="1">
         <v>0.69791666666666663</v>
       </c>
@@ -4267,8 +4542,12 @@
       <c r="R69">
         <v>7.8</v>
       </c>
-    </row>
-    <row r="70" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="S69">
+        <f t="shared" si="1"/>
+        <v>15.4</v>
+      </c>
+    </row>
+    <row r="70" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A70" s="1">
         <v>0.70833333333333337</v>
       </c>
@@ -4323,8 +4602,12 @@
       <c r="R70">
         <v>7.8</v>
       </c>
-    </row>
-    <row r="71" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="S70">
+        <f t="shared" si="1"/>
+        <v>15.5</v>
+      </c>
+    </row>
+    <row r="71" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A71" s="1">
         <v>0.71875</v>
       </c>
@@ -4379,8 +4662,12 @@
       <c r="R71">
         <v>7.8</v>
       </c>
-    </row>
-    <row r="72" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="S71">
+        <f t="shared" si="1"/>
+        <v>15.600000000000001</v>
+      </c>
+    </row>
+    <row r="72" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A72" s="1">
         <v>0.72916666666666663</v>
       </c>
@@ -4435,8 +4722,12 @@
       <c r="R72">
         <v>7.7</v>
       </c>
-    </row>
-    <row r="73" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="S72">
+        <f t="shared" si="1"/>
+        <v>15.7</v>
+      </c>
+    </row>
+    <row r="73" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A73" s="1">
         <v>0.73958333333333337</v>
       </c>
@@ -4491,8 +4782,12 @@
       <c r="R73">
         <v>7.4</v>
       </c>
-    </row>
-    <row r="74" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="S73">
+        <f t="shared" si="1"/>
+        <v>15.7</v>
+      </c>
+    </row>
+    <row r="74" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A74" s="1">
         <v>0.75</v>
       </c>
@@ -4547,8 +4842,12 @@
       <c r="R74">
         <v>7.1</v>
       </c>
-    </row>
-    <row r="75" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="S74">
+        <f t="shared" si="1"/>
+        <v>15.6</v>
+      </c>
+    </row>
+    <row r="75" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A75" s="1">
         <v>0.76041666666666663</v>
       </c>
@@ -4603,8 +4902,12 @@
       <c r="R75">
         <v>6.6</v>
       </c>
-    </row>
-    <row r="76" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="S75">
+        <f t="shared" si="1"/>
+        <v>15.6</v>
+      </c>
+    </row>
+    <row r="76" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A76" s="1">
         <v>0.77083333333333337</v>
       </c>
@@ -4659,8 +4962,12 @@
       <c r="R76">
         <v>6</v>
       </c>
-    </row>
-    <row r="77" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="S76">
+        <f t="shared" si="1"/>
+        <v>15.5</v>
+      </c>
+    </row>
+    <row r="77" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A77" s="1">
         <v>0.78125</v>
       </c>
@@ -4715,8 +5022,12 @@
       <c r="R77">
         <v>5.5</v>
       </c>
-    </row>
-    <row r="78" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="S77">
+        <f t="shared" si="1"/>
+        <v>15.2</v>
+      </c>
+    </row>
+    <row r="78" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A78" s="1">
         <v>0.79166666666666663</v>
       </c>
@@ -4771,8 +5082,12 @@
       <c r="R78">
         <v>5</v>
       </c>
-    </row>
-    <row r="79" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="S78">
+        <f t="shared" si="1"/>
+        <v>15.199999999999998</v>
+      </c>
+    </row>
+    <row r="79" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A79" s="1">
         <v>0.80208333333333337</v>
       </c>
@@ -4827,8 +5142,12 @@
       <c r="R79">
         <v>4.5</v>
       </c>
-    </row>
-    <row r="80" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="S79">
+        <f t="shared" si="1"/>
+        <v>14.999999999999998</v>
+      </c>
+    </row>
+    <row r="80" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A80" s="1">
         <v>0.8125</v>
       </c>
@@ -4883,8 +5202,12 @@
       <c r="R80">
         <v>4.2</v>
       </c>
-    </row>
-    <row r="81" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="S80">
+        <f t="shared" si="1"/>
+        <v>15.2</v>
+      </c>
+    </row>
+    <row r="81" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A81" s="1">
         <v>0.82291666666666663</v>
       </c>
@@ -4939,8 +5262,12 @@
       <c r="R81">
         <v>4</v>
       </c>
-    </row>
-    <row r="82" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="S81">
+        <f t="shared" si="1"/>
+        <v>15.2</v>
+      </c>
+    </row>
+    <row r="82" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A82" s="1">
         <v>0.83333333333333337</v>
       </c>
@@ -4995,8 +5322,12 @@
       <c r="R82">
         <v>3.9</v>
       </c>
-    </row>
-    <row r="83" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="S82">
+        <f t="shared" si="1"/>
+        <v>15.1</v>
+      </c>
+    </row>
+    <row r="83" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A83" s="1">
         <v>0.84375</v>
       </c>
@@ -5051,8 +5382,12 @@
       <c r="R83">
         <v>4</v>
       </c>
-    </row>
-    <row r="84" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="S83">
+        <f t="shared" si="1"/>
+        <v>14.999999999999998</v>
+      </c>
+    </row>
+    <row r="84" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A84" s="1">
         <v>0.85416666666666663</v>
       </c>
@@ -5107,8 +5442,12 @@
       <c r="R84">
         <v>4</v>
       </c>
-    </row>
-    <row r="85" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="S84">
+        <f t="shared" si="1"/>
+        <v>14.6</v>
+      </c>
+    </row>
+    <row r="85" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A85" s="1">
         <v>0.86458333333333337</v>
       </c>
@@ -5163,8 +5502,12 @@
       <c r="R85">
         <v>4.0999999999999996</v>
       </c>
-    </row>
-    <row r="86" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="S85">
+        <f t="shared" si="1"/>
+        <v>14.599999999999998</v>
+      </c>
+    </row>
+    <row r="86" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A86" s="1">
         <v>0.875</v>
       </c>
@@ -5219,8 +5562,12 @@
       <c r="R86">
         <v>4.0999999999999996</v>
       </c>
-    </row>
-    <row r="87" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="S86">
+        <f t="shared" si="1"/>
+        <v>14.499999999999998</v>
+      </c>
+    </row>
+    <row r="87" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A87" s="1">
         <v>0.88541666666666663</v>
       </c>
@@ -5275,8 +5622,12 @@
       <c r="R87">
         <v>4</v>
       </c>
-    </row>
-    <row r="88" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="S87">
+        <f t="shared" si="1"/>
+        <v>14.199999999999998</v>
+      </c>
+    </row>
+    <row r="88" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A88" s="1">
         <v>0.89583333333333337</v>
       </c>
@@ -5331,8 +5682,12 @@
       <c r="R88">
         <v>3.9</v>
       </c>
-    </row>
-    <row r="89" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="S88">
+        <f t="shared" si="1"/>
+        <v>14.099999999999998</v>
+      </c>
+    </row>
+    <row r="89" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A89" s="1">
         <v>0.90625</v>
       </c>
@@ -5387,8 +5742,12 @@
       <c r="R89">
         <v>3.8</v>
       </c>
-    </row>
-    <row r="90" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="S89">
+        <f t="shared" si="1"/>
+        <v>13.799999999999997</v>
+      </c>
+    </row>
+    <row r="90" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A90" s="1">
         <v>0.91666666666666663</v>
       </c>
@@ -5443,8 +5802,12 @@
       <c r="R90">
         <v>3.7</v>
       </c>
-    </row>
-    <row r="91" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="S90">
+        <f t="shared" si="1"/>
+        <v>13.399999999999999</v>
+      </c>
+    </row>
+    <row r="91" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A91" s="1">
         <v>0.92708333333333337</v>
       </c>
@@ -5499,8 +5862,12 @@
       <c r="R91">
         <v>3.7</v>
       </c>
-    </row>
-    <row r="92" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="S91">
+        <f t="shared" si="1"/>
+        <v>13.3</v>
+      </c>
+    </row>
+    <row r="92" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A92" s="1">
         <v>0.9375</v>
       </c>
@@ -5555,8 +5922,12 @@
       <c r="R92">
         <v>3.6</v>
       </c>
-    </row>
-    <row r="93" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="S92">
+        <f t="shared" si="1"/>
+        <v>13.1</v>
+      </c>
+    </row>
+    <row r="93" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A93" s="1">
         <v>0.94791666666666663</v>
       </c>
@@ -5611,8 +5982,12 @@
       <c r="R93">
         <v>3.6</v>
       </c>
-    </row>
-    <row r="94" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="S93">
+        <f t="shared" si="1"/>
+        <v>12.299999999999999</v>
+      </c>
+    </row>
+    <row r="94" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A94" s="1">
         <v>0.95833333333333337</v>
       </c>
@@ -5667,8 +6042,12 @@
       <c r="R94">
         <v>3.5</v>
       </c>
-    </row>
-    <row r="95" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="S94">
+        <f t="shared" si="1"/>
+        <v>11.7</v>
+      </c>
+    </row>
+    <row r="95" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A95" s="1">
         <v>0.96875</v>
       </c>
@@ -5723,8 +6102,12 @@
       <c r="R95">
         <v>3.5</v>
       </c>
-    </row>
-    <row r="96" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="S95">
+        <f t="shared" si="1"/>
+        <v>11.2</v>
+      </c>
+    </row>
+    <row r="96" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A96" s="1">
         <v>0.97916666666666663</v>
       </c>
@@ -5779,8 +6162,12 @@
       <c r="R96">
         <v>3.4</v>
       </c>
-    </row>
-    <row r="97" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="S96">
+        <f t="shared" si="1"/>
+        <v>10.4</v>
+      </c>
+    </row>
+    <row r="97" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A97" s="1">
         <v>0.98958333333333337</v>
       </c>
@@ -5834,6 +6221,10 @@
       </c>
       <c r="R97">
         <v>3.3</v>
+      </c>
+      <c r="S97">
+        <f t="shared" si="1"/>
+        <v>9.5</v>
       </c>
     </row>
   </sheetData>
